--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wede\Documents\GitHub\Plexim_2k18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F47235-980A-4ADC-9847-F4C948C44931}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF11CF0-A296-4AAC-B795-8E001E253C3D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,8 +558,8 @@
   </sheetPr>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -849,9 +849,8 @@
       <c r="F18" s="2">
         <v>0</v>
       </c>
-      <c r="G18" s="3">
-        <f>(D18-C18)+(F18-E18)</f>
-        <v>0</v>
+      <c r="G18" s="2">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -913,7 +912,7 @@
       </c>
       <c r="G22" s="8">
         <f>SUM(G16:G20)</f>
-        <v>0.83680555555555536</v>
+        <v>1.1701388888888886</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -940,20 +939,20 @@
         <v>43290</v>
       </c>
       <c r="C27" s="2">
-        <v>0</v>
+        <v>0.38472222222222219</v>
       </c>
       <c r="D27" s="2">
-        <v>0</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="F27" s="2">
-        <v>0</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="G27" s="3">
         <f>(D27-C27)+(F27-E27)</f>
-        <v>0</v>
+        <v>0.20347222222222217</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1067,7 +1066,7 @@
       </c>
       <c r="G33" s="8">
         <f>SUM(G27:G31)</f>
-        <v>0</v>
+        <v>0.20347222222222217</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
